--- a/pe_ex.xlsx
+++ b/pe_ex.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliri\Documents\Sanofi_Ejercicio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliri\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B413DB-95A0-4B29-BE50-644249F2F785}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5509BF0F-6979-4E37-82FE-C904D4449E72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,15 +31,6 @@
     <t>genero</t>
   </si>
   <si>
-    <t>satisfaccion_onboarding</t>
-  </si>
-  <si>
-    <t>rotacion</t>
-  </si>
-  <si>
-    <t>develop_people</t>
-  </si>
-  <si>
     <t>perfil_de_exito</t>
   </si>
   <si>
@@ -49,10 +40,19 @@
     <t>lidero_equipos</t>
   </si>
   <si>
-    <t>antiguedad</t>
+    <t>indice de sociabilidad</t>
   </si>
   <si>
-    <t>engagement_equipo</t>
+    <t>experiencia del colaborador</t>
+  </si>
+  <si>
+    <t>calidad feedback del gerente</t>
+  </si>
+  <si>
+    <t>Antiguedad en rol actual</t>
+  </si>
+  <si>
+    <t>cantidad de productos diferentes en portfolio</t>
   </si>
 </sst>
 </file>
@@ -456,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J627"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B23" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -477,28 +477,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>

--- a/pe_ex.xlsx
+++ b/pe_ex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliri\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5509BF0F-6979-4E37-82FE-C904D4449E72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3299D6B8-B694-4CEC-9035-786441893E26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,19 +40,19 @@
     <t>lidero_equipos</t>
   </si>
   <si>
-    <t>indice de sociabilidad</t>
+    <t>Antigüedad.en.rol.actual</t>
   </si>
   <si>
-    <t>experiencia del colaborador</t>
+    <t>cantidad.de.productos.diferentes.en.portfolio</t>
   </si>
   <si>
-    <t>calidad feedback del gerente</t>
+    <t>calidad.feedback.del.gerente</t>
   </si>
   <si>
-    <t>Antiguedad en rol actual</t>
+    <t>experiencia.del.colaborador</t>
   </si>
   <si>
-    <t>cantidad de productos diferentes en portfolio</t>
+    <t>indice.de.sociabilidad</t>
   </si>
 </sst>
 </file>
@@ -456,9 +456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J627"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -480,7 +478,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -489,7 +487,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
@@ -498,10 +496,10 @@
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">

--- a/pe_ex.xlsx
+++ b/pe_ex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliri\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3299D6B8-B694-4CEC-9035-786441893E26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FEE99B-DD25-484F-B03F-9D3B725DBB27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -456,7 +456,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J627"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
